--- a/LubanTools/DesignerConfigs/Datas/IslandLevel_岛屿等级表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/IslandLevel_岛屿等级表.xlsx
@@ -332,7 +332,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,13 +342,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -830,133 +823,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -969,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1502,14 +1495,16 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="9" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
     <col min="11" max="12" width="8.875" customWidth="1"/>
   </cols>

--- a/LubanTools/DesignerConfigs/Datas/IslandLevel_岛屿等级表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/IslandLevel_岛屿等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -288,7 +288,31 @@
     <t>1;2;3;4;5;6;7;8;9;10;11;12;13;14;15;18;19;20;21;22;23</t>
   </si>
   <si>
-    <t>20001;30|20002;50|2;20</t>
+    <t>2;4000</t>
+  </si>
+  <si>
+    <t>2;8900</t>
+  </si>
+  <si>
+    <t>2;18200</t>
+  </si>
+  <si>
+    <t>2;35500</t>
+  </si>
+  <si>
+    <t>2;51700</t>
+  </si>
+  <si>
+    <t>2;79200</t>
+  </si>
+  <si>
+    <t>2;124900</t>
+  </si>
+  <si>
+    <t>2;163400</t>
+  </si>
+  <si>
+    <t>2;226000</t>
   </si>
   <si>
     <t>森林岛屿</t>
@@ -1487,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,16 +1519,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="50.375" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="7" max="9" width="16.125" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
     <col min="11" max="12" width="8.875" customWidth="1"/>
   </cols>
@@ -1713,7 +1735,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="2">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1742,10 +1764,10 @@
         <v>2000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1774,10 +1796,10 @@
         <v>2000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2">
-        <v>400</v>
+        <v>954</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1806,10 +1828,10 @@
         <v>2000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2">
-        <v>400</v>
+        <v>1151</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1838,10 +1860,10 @@
         <v>2000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2">
-        <v>400</v>
+        <v>1546</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1870,10 +1892,10 @@
         <v>2000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
-        <v>400</v>
+        <v>2079</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1902,10 +1924,10 @@
         <v>2000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
-        <v>400</v>
+        <v>2244</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1934,10 +1956,10 @@
         <v>2000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
-        <v>400</v>
+        <v>2690</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1966,10 +1988,10 @@
         <v>2000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2">
-        <v>400</v>
+        <v>3287</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1983,7 +2005,7 @@
         <v>102001</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -1998,9 +2020,7 @@
         <v>2000</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>400</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2">
@@ -2013,7 +2033,7 @@
         <v>102002</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -2031,7 +2051,7 @@
         <v>36</v>
       </c>
       <c r="I16" s="2">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2045,7 +2065,7 @@
         <v>102003</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -2060,10 +2080,10 @@
         <v>2000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2077,7 +2097,7 @@
         <v>102004</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -2092,10 +2112,10 @@
         <v>2000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2">
-        <v>400</v>
+        <v>954</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2109,7 +2129,7 @@
         <v>102005</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -2124,10 +2144,10 @@
         <v>2000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2">
-        <v>400</v>
+        <v>1151</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2141,7 +2161,7 @@
         <v>102006</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -2156,10 +2176,10 @@
         <v>2000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2">
-        <v>400</v>
+        <v>1546</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2173,7 +2193,7 @@
         <v>102007</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -2188,10 +2208,10 @@
         <v>2000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2">
-        <v>400</v>
+        <v>2079</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2205,7 +2225,7 @@
         <v>102008</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -2220,10 +2240,10 @@
         <v>2000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2">
-        <v>400</v>
+        <v>2244</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2237,7 +2257,7 @@
         <v>102009</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -2252,10 +2272,10 @@
         <v>2000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2">
-        <v>400</v>
+        <v>2690</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2269,7 +2289,7 @@
         <v>102010</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -2284,10 +2304,10 @@
         <v>2000</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2">
-        <v>400</v>
+        <v>3287</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2301,7 +2321,7 @@
         <v>103001</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
@@ -2316,9 +2336,7 @@
         <v>2000</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>400</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2">
@@ -2331,7 +2349,7 @@
         <v>103002</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -2349,7 +2367,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="2">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2363,7 +2381,7 @@
         <v>103003</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -2378,10 +2396,10 @@
         <v>2000</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I27" s="2">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2395,7 +2413,7 @@
         <v>103004</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -2410,10 +2428,10 @@
         <v>2000</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I28" s="2">
-        <v>400</v>
+        <v>954</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2427,7 +2445,7 @@
         <v>103005</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -2442,10 +2460,10 @@
         <v>2000</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I29" s="2">
-        <v>400</v>
+        <v>1151</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2459,7 +2477,7 @@
         <v>103006</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -2474,10 +2492,10 @@
         <v>2000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I30" s="2">
-        <v>400</v>
+        <v>1546</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2491,7 +2509,7 @@
         <v>103007</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -2506,10 +2524,10 @@
         <v>2000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I31" s="2">
-        <v>400</v>
+        <v>2079</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2523,7 +2541,7 @@
         <v>103008</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -2538,10 +2556,10 @@
         <v>2000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I32" s="2">
-        <v>400</v>
+        <v>2244</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2555,7 +2573,7 @@
         <v>103009</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -2570,10 +2588,10 @@
         <v>2000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I33" s="2">
-        <v>400</v>
+        <v>2690</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2587,7 +2605,7 @@
         <v>103010</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
@@ -2602,10 +2620,10 @@
         <v>2000</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I34" s="2">
-        <v>400</v>
+        <v>3287</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2619,13 +2637,13 @@
         <v>104001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -2634,9 +2652,7 @@
         <v>2000</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>400</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2">
@@ -2649,13 +2665,13 @@
         <v>104002</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -2667,7 +2683,7 @@
         <v>36</v>
       </c>
       <c r="I36" s="2">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2681,13 +2697,13 @@
         <v>104003</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -2696,10 +2712,10 @@
         <v>2000</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I37" s="2">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2713,13 +2729,13 @@
         <v>104004</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -2728,10 +2744,10 @@
         <v>2000</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I38" s="2">
-        <v>400</v>
+        <v>954</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2745,13 +2761,13 @@
         <v>104005</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -2760,10 +2776,10 @@
         <v>2000</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I39" s="2">
-        <v>400</v>
+        <v>1151</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2777,13 +2793,13 @@
         <v>104006</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -2792,10 +2808,10 @@
         <v>2000</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I40" s="2">
-        <v>400</v>
+        <v>1546</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -2809,13 +2825,13 @@
         <v>104007</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -2824,10 +2840,10 @@
         <v>2000</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I41" s="2">
-        <v>400</v>
+        <v>2079</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2841,13 +2857,13 @@
         <v>104008</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -2856,10 +2872,10 @@
         <v>2000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I42" s="2">
-        <v>400</v>
+        <v>2244</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2872,13 +2888,13 @@
         <v>104009</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -2887,10 +2903,10 @@
         <v>2000</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I43" s="2">
-        <v>400</v>
+        <v>2690</v>
       </c>
       <c r="L43" s="2">
         <v>4</v>
@@ -2901,13 +2917,13 @@
         <v>104010</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -2916,10 +2932,10 @@
         <v>2000</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I44" s="2">
-        <v>400</v>
+        <v>3287</v>
       </c>
       <c r="L44" s="2">
         <v>4</v>
